--- a/new.xlsx
+++ b/new.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="try_hsk.json" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="748">
   <si>
     <t>爱</t>
   </si>
@@ -2257,6 +2257,21 @@
   </si>
   <si>
     <t>sound</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>noun</t>
   </si>
 </sst>
 </file>
@@ -2639,22 +2654,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>739</v>
       </c>
@@ -2667,8 +2683,20 @@
       <c r="E1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2684,10 +2712,12 @@
       <c r="E2" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2703,8 +2733,11 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2722,8 +2755,11 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2741,8 +2777,11 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2760,8 +2799,11 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2779,8 +2821,11 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2798,8 +2843,11 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2817,8 +2865,11 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2836,8 +2887,11 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2855,8 +2909,11 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2874,8 +2931,11 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2891,8 +2951,11 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2908,10 +2971,12 @@
       <c r="E14" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2929,8 +2994,11 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2947,9 +3015,11 @@
         <v>443</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="G16" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="132" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2967,8 +3037,11 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2986,8 +3059,11 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -3005,8 +3081,11 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -3024,8 +3103,11 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>456</v>
       </c>
@@ -3043,8 +3125,11 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -3061,9 +3146,11 @@
         <v>462</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G22" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -3079,10 +3166,12 @@
       <c r="E23" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -3098,10 +3187,12 @@
       <c r="E24" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -3118,9 +3209,11 @@
         <v>471</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G25" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
@@ -3138,8 +3231,11 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -3158,7 +3254,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -3176,8 +3272,11 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -3195,8 +3294,11 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -3214,8 +3316,11 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3338,11 @@
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -3252,8 +3360,11 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3268,9 +3379,11 @@
         <v>494</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G33" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -3288,8 +3401,11 @@
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -3307,8 +3423,11 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -3326,8 +3445,11 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -3345,8 +3467,11 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -3362,10 +3487,12 @@
       <c r="E38" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -3383,8 +3510,11 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -3402,8 +3532,11 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>76</v>
       </c>
@@ -3420,9 +3553,11 @@
         <v>526</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -3438,10 +3573,12 @@
       <c r="E42" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -3457,10 +3594,12 @@
       <c r="E43" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
@@ -3478,8 +3617,11 @@
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>84</v>
       </c>
@@ -3497,8 +3639,11 @@
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3661,11 @@
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -3535,8 +3683,11 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
@@ -3554,8 +3705,11 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>92</v>
       </c>
@@ -3573,8 +3727,11 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -3592,8 +3749,11 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -3611,8 +3771,11 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>98</v>
       </c>
@@ -3630,8 +3793,11 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
@@ -3649,8 +3815,11 @@
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>102</v>
       </c>
@@ -3668,8 +3837,11 @@
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>105</v>
       </c>
@@ -3687,8 +3859,11 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -3706,8 +3881,11 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -3725,8 +3903,11 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -3744,8 +3925,11 @@
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>115</v>
       </c>
@@ -3763,8 +3947,11 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -3783,7 +3970,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -3801,8 +3988,11 @@
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -3820,8 +4010,11 @@
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>127</v>
       </c>
@@ -3837,10 +4030,12 @@
       <c r="E63" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>130</v>
       </c>
@@ -3858,8 +4053,11 @@
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
@@ -3877,8 +4075,11 @@
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>136</v>
       </c>
@@ -3896,8 +4097,11 @@
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
@@ -3915,8 +4119,11 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
@@ -3934,8 +4141,11 @@
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>145</v>
       </c>
@@ -3953,8 +4163,11 @@
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
@@ -3971,9 +4184,11 @@
         <v>655</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G70" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>151</v>
       </c>
@@ -3990,9 +4205,11 @@
         <v>656</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G71" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>154</v>
       </c>
@@ -4009,9 +4226,11 @@
         <v>657</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G72" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>157</v>
       </c>
@@ -4028,9 +4247,11 @@
         <v>658</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G73" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -4047,9 +4268,11 @@
         <v>659</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G74" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>163</v>
       </c>
@@ -4065,10 +4288,12 @@
       <c r="E75" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>166</v>
       </c>
@@ -4085,9 +4310,11 @@
         <v>661</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G76" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>169</v>
       </c>
@@ -4105,8 +4332,11 @@
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>172</v>
       </c>
@@ -4125,7 +4355,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>175</v>
       </c>
@@ -4144,7 +4374,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>178</v>
       </c>
@@ -4163,7 +4393,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>181</v>
       </c>
@@ -4181,8 +4411,11 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>184</v>
       </c>
@@ -4200,8 +4433,11 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>187</v>
       </c>
@@ -4219,8 +4455,11 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>190</v>
       </c>
@@ -4238,8 +4477,11 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>193</v>
       </c>
@@ -4257,8 +4499,11 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>196</v>
       </c>
@@ -4274,10 +4519,12 @@
       <c r="E86" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>199</v>
       </c>
@@ -4296,7 +4543,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>202</v>
       </c>
@@ -4314,8 +4561,11 @@
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>205</v>
       </c>
@@ -4334,7 +4584,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>208</v>
       </c>
@@ -4352,8 +4602,11 @@
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>211</v>
       </c>
@@ -4372,7 +4625,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>214</v>
       </c>
@@ -4390,8 +4643,11 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>217</v>
       </c>
@@ -4408,9 +4664,11 @@
         <v>679</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G93" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>220</v>
       </c>
@@ -4428,8 +4686,11 @@
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>223</v>
       </c>
@@ -4447,8 +4708,11 @@
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>226</v>
       </c>
@@ -4467,7 +4731,7 @@
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>229</v>
       </c>
@@ -4485,8 +4749,11 @@
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>232</v>
       </c>
@@ -4505,7 +4772,7 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>235</v>
       </c>
@@ -4523,8 +4790,11 @@
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>238</v>
       </c>
@@ -4540,10 +4810,12 @@
       <c r="E100" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="F100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G100" s="5"/>
     </row>
-    <row r="101" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>241</v>
       </c>
@@ -4561,8 +4833,11 @@
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>244</v>
       </c>
@@ -4580,8 +4855,11 @@
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>737</v>
       </c>
@@ -4599,8 +4877,11 @@
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>249</v>
       </c>
@@ -4619,7 +4900,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>252</v>
       </c>
@@ -4637,8 +4918,11 @@
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>255</v>
       </c>
@@ -4656,8 +4940,11 @@
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>258</v>
       </c>
@@ -4675,8 +4962,11 @@
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>261</v>
       </c>
@@ -4693,9 +4983,11 @@
         <v>681</v>
       </c>
       <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G108" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>264</v>
       </c>
@@ -4712,9 +5004,11 @@
         <v>681</v>
       </c>
       <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G109" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>266</v>
       </c>
@@ -4732,8 +5026,11 @@
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>269</v>
       </c>
@@ -4751,8 +5048,11 @@
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>272</v>
       </c>
@@ -4766,10 +5066,12 @@
       <c r="E112" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="F112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G112" s="5"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>275</v>
       </c>
@@ -4787,8 +5089,11 @@
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>278</v>
       </c>
@@ -4804,8 +5109,11 @@
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>281</v>
       </c>
@@ -4823,8 +5131,11 @@
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>284</v>
       </c>
@@ -4841,9 +5152,11 @@
         <v>719</v>
       </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G116" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>287</v>
       </c>
@@ -4862,7 +5175,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>290</v>
       </c>
@@ -4878,10 +5191,12 @@
       <c r="E118" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>293</v>
       </c>
@@ -4898,9 +5213,11 @@
         <v>716</v>
       </c>
       <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G119" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>296</v>
       </c>
@@ -4918,8 +5235,11 @@
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-    </row>
-    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>299</v>
       </c>
@@ -4937,8 +5257,11 @@
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-    </row>
-    <row r="122" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>302</v>
       </c>
@@ -4956,8 +5279,11 @@
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-    </row>
-    <row r="123" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>305</v>
       </c>
@@ -4974,9 +5300,11 @@
         <v>712</v>
       </c>
       <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G123" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>308</v>
       </c>
@@ -4994,8 +5322,11 @@
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>311</v>
       </c>
@@ -5013,8 +5344,11 @@
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>314</v>
       </c>
@@ -5032,8 +5366,11 @@
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>317</v>
       </c>
@@ -5051,8 +5388,11 @@
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>320</v>
       </c>
@@ -5070,8 +5410,11 @@
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>323</v>
       </c>
@@ -5089,8 +5432,11 @@
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>326</v>
       </c>
@@ -5108,8 +5454,11 @@
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>329</v>
       </c>
@@ -5127,8 +5476,11 @@
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>332</v>
       </c>
@@ -5144,10 +5496,12 @@
       <c r="E132" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="F132" s="5"/>
+      <c r="F132" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>335</v>
       </c>
@@ -5165,8 +5519,11 @@
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
-    </row>
-    <row r="134" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>338</v>
       </c>
@@ -5184,8 +5541,11 @@
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
-    </row>
-    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>341</v>
       </c>
@@ -5203,8 +5563,11 @@
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>344</v>
       </c>
@@ -5222,8 +5585,11 @@
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
-    </row>
-    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>347</v>
       </c>
@@ -5241,8 +5607,11 @@
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>350</v>
       </c>
@@ -5258,8 +5627,11 @@
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
-    </row>
-    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>353</v>
       </c>
@@ -5275,10 +5647,12 @@
       <c r="E139" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="F139" s="5"/>
+      <c r="F139" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G139" s="5"/>
     </row>
-    <row r="140" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>356</v>
       </c>
@@ -5294,10 +5668,12 @@
       <c r="E140" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="F140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G140" s="5"/>
     </row>
-    <row r="141" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>359</v>
       </c>
@@ -5315,8 +5691,11 @@
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>362</v>
       </c>
@@ -5334,8 +5713,11 @@
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>365</v>
       </c>
@@ -5353,8 +5735,11 @@
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-    </row>
-    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>368</v>
       </c>
@@ -5372,8 +5757,11 @@
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-    </row>
-    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>371</v>
       </c>
@@ -5391,8 +5779,11 @@
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-    </row>
-    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>374</v>
       </c>
@@ -5410,8 +5801,11 @@
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
-    </row>
-    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>377</v>
       </c>
@@ -5429,8 +5823,11 @@
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
-    </row>
-    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>380</v>
       </c>
@@ -5448,8 +5845,11 @@
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-    </row>
-    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>383</v>
       </c>
@@ -5465,10 +5865,12 @@
       <c r="E149" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="F149" s="5"/>
+      <c r="F149" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G149" s="5"/>
     </row>
-    <row r="150" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>386</v>
       </c>
@@ -5486,8 +5888,11 @@
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>389</v>
       </c>
@@ -5505,8 +5910,11 @@
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-    </row>
-    <row r="152" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I151" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>392</v>
       </c>
@@ -5524,8 +5932,11 @@
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
-    </row>
-    <row r="153" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>395</v>
       </c>
@@ -5541,10 +5952,12 @@
       <c r="E153" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="F153" s="5"/>
+      <c r="F153" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G153" s="5"/>
     </row>
-    <row r="154" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>398</v>
       </c>
@@ -5560,7 +5973,9 @@
       <c r="E154" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="F154" s="5"/>
+      <c r="F154" s="5" t="s">
+        <v>744</v>
+      </c>
       <c r="G154" s="5"/>
     </row>
   </sheetData>
